--- a/SRC/data_dictionary.xlsx
+++ b/SRC/data_dictionary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>person</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>definition</t>
+  </si>
+  <si>
+    <t>P and a 5 digit number, with leading zeros if necessary, p.e. P00001</t>
   </si>
 </sst>
 </file>
@@ -436,7 +439,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" activeCellId="1" sqref="A1 A6"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,6 +462,9 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -485,86 +491,137 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>

--- a/SRC/data_dictionary.xlsx
+++ b/SRC/data_dictionary.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
-  <si>
-    <t>person</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="138">
   <si>
     <t>person_id</t>
   </si>
@@ -94,6 +91,345 @@
   </si>
   <si>
     <t>P and a 5 digit number, with leading zeros if necessary, p.e. P00001</t>
+  </si>
+  <si>
+    <t>Family name of a person by which he/she is commonly known; i.e. Lu for Lu Xun (instead of Zhou Shuren), Bei for Bei Dao (not Zhao Zhenkai)</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Language of this name, EN, ZH_PY, ZH_HZ etc.</t>
+  </si>
+  <si>
+    <t>records whether or when a person experienced rustication; write "no", if not, provide year for yes</t>
+  </si>
+  <si>
+    <t>place of rustication (or major place of rustication if several)</t>
+  </si>
+  <si>
+    <t>provide birth year here</t>
+  </si>
+  <si>
+    <t>provide death  year here</t>
+  </si>
+  <si>
+    <t>Alternative family name, under which a person may also be known, i.e. Zhou Shuren for Lu Xun or Zhao Zhenkai for Bei Dao; could also be a pseudonym of a person; but not more than one alternative name</t>
+  </si>
+  <si>
+    <t>Record city / town where a person was born</t>
+  </si>
+  <si>
+    <t>Record social position of a person: worker, party cadre, university professor, teacher, farmer…</t>
+  </si>
+  <si>
+    <t>Refernce to person ID for a person's father</t>
+  </si>
+  <si>
+    <t>Refernce to person ID for a person's mother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Record whether a person had access to neibu material: yes/no </t>
+  </si>
+  <si>
+    <t>Reference to text in which a reading is reorded; for person entries for authors of autobiographical texts or of academic texts, this can be left empty</t>
+  </si>
+  <si>
+    <t>Page number in text that the colum source_id refers to</t>
+  </si>
+  <si>
+    <t>date of creation of line</t>
+  </si>
+  <si>
+    <t>name of project member creating this line; use akronym</t>
+  </si>
+  <si>
+    <t>date of last modification</t>
+  </si>
+  <si>
+    <t>name of project member last modifying this line; use akronym</t>
+  </si>
+  <si>
+    <t>soc_pos_id</t>
+  </si>
+  <si>
+    <t>soc_pos_name</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>SocialPosition</t>
+  </si>
+  <si>
+    <t>SP and a 4 digit number, with leading zeros if necessary, p.e. SP0001</t>
+  </si>
+  <si>
+    <t>Name of a social position</t>
+  </si>
+  <si>
+    <t>Beginning (year) of a social position</t>
+  </si>
+  <si>
+    <t>End (year) of a social position; if only one year / point in time then use same as start year, p.e. 1968-1968</t>
+  </si>
+  <si>
+    <t>text_id</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>title_lang</t>
+  </si>
+  <si>
+    <t>genre_id</t>
+  </si>
+  <si>
+    <t>publication_place</t>
+  </si>
+  <si>
+    <t>publication_date</t>
+  </si>
+  <si>
+    <t>publishing_house</t>
+  </si>
+  <si>
+    <t>first_chin_edition</t>
+  </si>
+  <si>
+    <t>neibu</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>T and a 5 digit number, with leading zeros if necessary, p.e. T00001</t>
+  </si>
+  <si>
+    <t>Title of a text; for the texts discussed by readers in autobiographical texts, create separate lines for a) title in Chinese characters; b) title in original language (if German, French, Italian, English) or English (esp. for texts originally in Russian)</t>
+  </si>
+  <si>
+    <t>Language of this title EN, ZH_PY, ZH_HZ etc.</t>
+  </si>
+  <si>
+    <t>Refer to genre IS</t>
+  </si>
+  <si>
+    <t>year of first edition in China</t>
+  </si>
+  <si>
+    <t>name of publishing house; provide pinyin for Chinese publishing houses</t>
+  </si>
+  <si>
+    <t>date of first publication in original language</t>
+  </si>
+  <si>
+    <t>place of first publication</t>
+  </si>
+  <si>
+    <t>yes/no whether this was originally a neibu publication</t>
+  </si>
+  <si>
+    <t>Reference to text in which a reading is reorded; column may remain empty if this line records an academic or autobiographical text</t>
+  </si>
+  <si>
+    <t>Space for background information on the text, if necessary; for example reference to translation of a poem into English; on when a text was written…</t>
+  </si>
+  <si>
+    <t>Genre</t>
+  </si>
+  <si>
+    <t>genre_name</t>
+  </si>
+  <si>
+    <t>genre_name_lang</t>
+  </si>
+  <si>
+    <t>genre_type</t>
+  </si>
+  <si>
+    <t>G and a 3 digit number, with leading zeros if necessary, p.e. G001</t>
+  </si>
+  <si>
+    <t>name of a genre, preferrably English terms; if necessary use Chinese pinyin</t>
+  </si>
+  <si>
+    <t>genre type of higher ranking order, i.e. fiction as a broad category for short story, novel…</t>
+  </si>
+  <si>
+    <t>iso_code</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>IsoLangCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use standard codes from </t>
+  </si>
+  <si>
+    <t>name of the language in English</t>
+  </si>
+  <si>
+    <t>inst_ID</t>
+  </si>
+  <si>
+    <t>inst_name</t>
+  </si>
+  <si>
+    <t>inst_name_lang</t>
+  </si>
+  <si>
+    <t>inst_alt_name</t>
+  </si>
+  <si>
+    <t>members_id</t>
+  </si>
+  <si>
+    <t>Institution</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>I and a four digit number, with leading zeros if necessary, p.e. I0001</t>
+  </si>
+  <si>
+    <t>Name of an institution, for example "school"; "university"; Baiyangdian group; Chinese Communist Party; for generic institutions use English, for others Chinese pinyin</t>
+  </si>
+  <si>
+    <t>language code</t>
+  </si>
+  <si>
+    <t>alternative name for the institution, CCP instead of Chinese Communist Party</t>
+  </si>
+  <si>
+    <t>List Person Ids of members of an institution (only one?? Many??)</t>
+  </si>
+  <si>
+    <t>if applicable reference to text ID of source text</t>
+  </si>
+  <si>
+    <t>page number in source text</t>
+  </si>
+  <si>
+    <t>place_ID</t>
+  </si>
+  <si>
+    <t>place_name</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Place </t>
+  </si>
+  <si>
+    <t>PL and a five digit number, with leading zeros if necessary, p.e. PL00001</t>
+  </si>
+  <si>
+    <t>Name of a place in English / Chinese pinyin: Shanghai; Cologne; Rome</t>
+  </si>
+  <si>
+    <t>geo.data</t>
+  </si>
+  <si>
+    <t>loc_id</t>
+  </si>
+  <si>
+    <t>loc_name</t>
+  </si>
+  <si>
+    <t>loc_name_lang</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>L and a four digit number, with leading zeros if necessary, p.e. L0001</t>
+  </si>
+  <si>
+    <t>Give name of a location - location refers to a type of place: in the market place; on the toilet; in the kitchen; at school; at the seaside; on a boat…</t>
+  </si>
+  <si>
+    <t>language of the term in loc_name</t>
+  </si>
+  <si>
+    <t>action_ID</t>
+  </si>
+  <si>
+    <t>ActType</t>
+  </si>
+  <si>
+    <t>AT and a four digit number, with leading zeros if necessary, p.e. AT0001</t>
+  </si>
+  <si>
+    <t>verb for an action undertaken in the course of a wider act of reading: circulate, steal, buy, copy, print, borrow, read, give as a present, listen in storytelling, discuss; give a book to…</t>
+  </si>
+  <si>
+    <t>act_ID</t>
+  </si>
+  <si>
+    <t>agent</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>agens</t>
+  </si>
+  <si>
+    <t>substantial_discussion</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>A and a five digit number, with leading zeros if necessary, p.e. A00001</t>
+  </si>
+  <si>
+    <t>Act</t>
+  </si>
+  <si>
+    <t>Subject doing something; p.e. person stealing a book; use Person ID</t>
+  </si>
+  <si>
+    <t>add ActType/action_ID</t>
+  </si>
+  <si>
+    <t>action_name</t>
+  </si>
+  <si>
+    <t>Object of an action; p.e. text or person; use person or text ID respectively</t>
+  </si>
+  <si>
+    <t>Beginning (year) of an action</t>
+  </si>
+  <si>
+    <t>End (year) of an action; if only one year / point in time then use same as start year, p.e. 1968-1968</t>
+  </si>
+  <si>
+    <t>if there is a substantial discussion, add substantial comment / summary or quotation from source</t>
+  </si>
+  <si>
+    <t>is the activity / text only mentioned briefly (&gt;no) or substantially (&gt;yes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference to text in which an activity is reorded; </t>
+  </si>
+  <si>
+    <t>LH</t>
   </si>
 </sst>
 </file>
@@ -103,7 +439,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,13 +447,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,9 +482,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -436,194 +788,1208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:L115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="I2" s="1">
+        <v>42920</v>
+      </c>
+      <c r="J2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" s="1">
+        <v>42920</v>
+      </c>
+      <c r="L2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" t="s">
+        <v>79</v>
+      </c>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>92</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>92</v>
+      </c>
+      <c r="B72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>105</v>
+      </c>
+      <c r="B78" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>105</v>
+      </c>
+      <c r="B79" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80" t="s">
+        <v>103</v>
+      </c>
+      <c r="C80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>105</v>
+      </c>
+      <c r="B81" t="s">
+        <v>104</v>
+      </c>
+      <c r="C81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>105</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>105</v>
+      </c>
+      <c r="B83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>105</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>105</v>
+      </c>
+      <c r="B85" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>112</v>
+      </c>
+      <c r="B87" t="s">
+        <v>109</v>
+      </c>
+      <c r="C87" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>112</v>
+      </c>
+      <c r="B88" t="s">
+        <v>110</v>
+      </c>
+      <c r="C88" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>112</v>
+      </c>
+      <c r="B89" t="s">
+        <v>111</v>
+      </c>
+      <c r="C89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>112</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>112</v>
+      </c>
+      <c r="B91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>112</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>112</v>
+      </c>
+      <c r="B93" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>117</v>
+      </c>
+      <c r="B95" t="s">
+        <v>116</v>
+      </c>
+      <c r="C95" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>117</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C96" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>117</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>117</v>
+      </c>
+      <c r="B98" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>117</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>117</v>
+      </c>
+      <c r="B100" t="s">
+        <v>20</v>
+      </c>
+      <c r="C100" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>127</v>
+      </c>
+      <c r="B102" t="s">
+        <v>120</v>
+      </c>
+      <c r="C102" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>127</v>
+      </c>
+      <c r="B103" t="s">
+        <v>121</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>127</v>
+      </c>
+      <c r="B104" t="s">
+        <v>122</v>
+      </c>
+      <c r="C104" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>127</v>
+      </c>
+      <c r="B105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C105" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>127</v>
+      </c>
+      <c r="B106" t="s">
+        <v>46</v>
+      </c>
+      <c r="C106" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>127</v>
+      </c>
+      <c r="B107" t="s">
+        <v>47</v>
+      </c>
+      <c r="C107" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>127</v>
+      </c>
+      <c r="B108" t="s">
+        <v>124</v>
+      </c>
+      <c r="C108" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>127</v>
+      </c>
+      <c r="B109" t="s">
+        <v>125</v>
+      </c>
+      <c r="C109" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>127</v>
+      </c>
+      <c r="B110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>127</v>
+      </c>
+      <c r="B111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>127</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>127</v>
+      </c>
+      <c r="B113" t="s">
+        <v>18</v>
+      </c>
+      <c r="C113" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>127</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>127</v>
+      </c>
+      <c r="B115" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/SRC/data_dictionary.xlsx
+++ b/SRC/data_dictionary.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
@@ -123,33 +121,18 @@
     <t>Record social position of a person: worker, party cadre, university professor, teacher, farmer…</t>
   </si>
   <si>
-    <t>Refernce to person ID for a person's father</t>
-  </si>
-  <si>
-    <t>Refernce to person ID for a person's mother</t>
-  </si>
-  <si>
     <t xml:space="preserve">Record whether a person had access to neibu material: yes/no </t>
   </si>
   <si>
-    <t>Reference to text in which a reading is reorded; for person entries for authors of autobiographical texts or of academic texts, this can be left empty</t>
-  </si>
-  <si>
     <t>Page number in text that the colum source_id refers to</t>
   </si>
   <si>
     <t>date of creation of line</t>
   </si>
   <si>
-    <t>name of project member creating this line; use akronym</t>
-  </si>
-  <si>
     <t>date of last modification</t>
   </si>
   <si>
-    <t>name of project member last modifying this line; use akronym</t>
-  </si>
-  <si>
     <t>soc_pos_id</t>
   </si>
   <si>
@@ -430,12 +413,27 @@
   </si>
   <si>
     <t>LH</t>
+  </si>
+  <si>
+    <t>Reference to person ID for a person's father</t>
+  </si>
+  <si>
+    <t>Reference to person ID for a person's mother</t>
+  </si>
+  <si>
+    <t>Reference to text in which a reading is recorded; for person entries for authors of autobiographical texts or of academic texts, this can be left empty</t>
+  </si>
+  <si>
+    <t>name of project member creating this line; use acronym</t>
+  </si>
+  <si>
+    <t>name of project member last modifying this line; use acronym</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -491,20 +489,51 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -542,9 +571,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -577,9 +606,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -612,9 +658,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -790,17 +853,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="9" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -823,9 +886,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -837,18 +900,18 @@
         <v>42920</v>
       </c>
       <c r="J2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K2" s="1">
         <v>42920</v>
       </c>
       <c r="L2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -857,9 +920,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -868,9 +931,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -879,9 +942,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -890,9 +953,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -901,9 +964,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -912,9 +975,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -923,9 +986,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -934,9 +997,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -945,9 +1008,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -956,9 +1019,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -967,1057 +1030,1033 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
       <c r="C22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>48</v>
-      </c>
       <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
         <v>44</v>
       </c>
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
         <v>45</v>
       </c>
-      <c r="C25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
         <v>46</v>
       </c>
-      <c r="C26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
         <v>47</v>
       </c>
-      <c r="C27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" t="s">
         <v>63</v>
       </c>
-      <c r="B33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" t="s">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" t="s">
         <v>56</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C41" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>58</v>
-      </c>
-      <c r="C38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>63</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
         <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
         <v>20</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" t="s">
+        <v>74</v>
+      </c>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" t="s">
         <v>75</v>
       </c>
-      <c r="B50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" t="s">
-        <v>79</v>
-      </c>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>75</v>
-      </c>
-      <c r="B51" t="s">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" t="s">
         <v>76</v>
       </c>
-      <c r="C51" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>75</v>
-      </c>
-      <c r="B52" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" t="s">
-        <v>66</v>
-      </c>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>75</v>
-      </c>
-      <c r="B53" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B55" t="s">
         <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B57" t="s">
         <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B60" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C60" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C61" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B62" t="s">
         <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B64" t="s">
         <v>20</v>
       </c>
       <c r="C64" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>87</v>
+      </c>
+      <c r="B67" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>87</v>
+      </c>
+      <c r="B68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B66" t="s">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>87</v>
       </c>
-      <c r="C66" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>92</v>
-      </c>
-      <c r="B67" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>92</v>
-      </c>
-      <c r="B68" t="s">
-        <v>89</v>
-      </c>
-      <c r="C68" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>92</v>
-      </c>
-      <c r="B69" t="s">
-        <v>90</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>92</v>
-      </c>
       <c r="B70" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B71" t="s">
         <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B72" t="s">
         <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C73" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B74" t="s">
         <v>18</v>
       </c>
       <c r="C74" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C75" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B76" t="s">
         <v>20</v>
       </c>
       <c r="C76" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B78" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78" t="s">
         <v>101</v>
       </c>
-      <c r="C78" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B79" t="s">
+        <v>97</v>
+      </c>
+      <c r="C79" t="s">
         <v>102</v>
       </c>
-      <c r="C79" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B80" t="s">
+        <v>98</v>
+      </c>
+      <c r="C80" t="s">
         <v>103</v>
       </c>
-      <c r="C80" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B81" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C81" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C82" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B83" t="s">
         <v>18</v>
       </c>
       <c r="C83" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C84" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B85" t="s">
         <v>20</v>
       </c>
       <c r="C85" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B87" t="s">
+        <v>104</v>
+      </c>
+      <c r="C87" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>107</v>
+      </c>
+      <c r="B88" t="s">
+        <v>105</v>
+      </c>
+      <c r="C88" t="s">
         <v>109</v>
       </c>
-      <c r="C87" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>112</v>
-      </c>
-      <c r="B88" t="s">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>107</v>
+      </c>
+      <c r="B89" t="s">
+        <v>106</v>
+      </c>
+      <c r="C89" t="s">
         <v>110</v>
       </c>
-      <c r="C88" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>112</v>
-      </c>
-      <c r="B89" t="s">
-        <v>111</v>
-      </c>
-      <c r="C89" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C90" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B91" t="s">
         <v>18</v>
       </c>
       <c r="C91" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C92" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B93" t="s">
         <v>20</v>
       </c>
       <c r="C93" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B95" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C95" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C96" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C97" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B98" t="s">
         <v>18</v>
       </c>
       <c r="C98" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C99" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B100" t="s">
         <v>20</v>
       </c>
       <c r="C100" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
+        <v>122</v>
+      </c>
+      <c r="B102" t="s">
+        <v>115</v>
+      </c>
+      <c r="C102" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>122</v>
+      </c>
+      <c r="B103" t="s">
+        <v>116</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>122</v>
+      </c>
+      <c r="B104" t="s">
+        <v>117</v>
+      </c>
+      <c r="C104" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>122</v>
+      </c>
+      <c r="B105" t="s">
+        <v>118</v>
+      </c>
+      <c r="C105" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>122</v>
+      </c>
+      <c r="B106" t="s">
+        <v>41</v>
+      </c>
+      <c r="C106" t="s">
         <v>127</v>
       </c>
-      <c r="B102" t="s">
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>122</v>
+      </c>
+      <c r="B107" t="s">
+        <v>42</v>
+      </c>
+      <c r="C107" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>122</v>
+      </c>
+      <c r="B108" t="s">
+        <v>119</v>
+      </c>
+      <c r="C108" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>122</v>
+      </c>
+      <c r="B109" t="s">
         <v>120</v>
       </c>
-      <c r="C102" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>127</v>
-      </c>
-      <c r="B103" t="s">
-        <v>121</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>127</v>
-      </c>
-      <c r="B104" t="s">
+      <c r="C109" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
         <v>122</v>
-      </c>
-      <c r="C104" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>127</v>
-      </c>
-      <c r="B105" t="s">
-        <v>123</v>
-      </c>
-      <c r="C105" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>127</v>
-      </c>
-      <c r="B106" t="s">
-        <v>46</v>
-      </c>
-      <c r="C106" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>127</v>
-      </c>
-      <c r="B107" t="s">
-        <v>47</v>
-      </c>
-      <c r="C107" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>127</v>
-      </c>
-      <c r="B108" t="s">
-        <v>124</v>
-      </c>
-      <c r="C108" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>127</v>
-      </c>
-      <c r="B109" t="s">
-        <v>125</v>
-      </c>
-      <c r="C109" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>127</v>
       </c>
       <c r="B110" t="s">
         <v>15</v>
       </c>
       <c r="C110" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B111" t="s">
         <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C112" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B113" t="s">
         <v>18</v>
       </c>
       <c r="C113" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C114" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B115" t="s">
         <v>20</v>
       </c>
       <c r="C115" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/SRC/data_dictionary.xlsx
+++ b/SRC/data_dictionary.xlsx
@@ -1,15 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
+  <fileSharing readOnlyRecommended="1"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HALmob/Documents/gits/ReadingData/SRC/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <workbookProtection lockRevision="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="21020" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">data_dictionary!$A$13</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
+  </definedNames>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <customWorkbookViews>
+    <customWorkbookView name="Duncan Paterson - Personal View" guid="{CF58D26F-A0BA-0142-B29E-E0250F7879E1}" mergeInterval="0" personalView="1" windowWidth="1051" windowHeight="290" activeSheetId="1"/>
+  </customWorkbookViews>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -433,7 +461,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -487,7 +515,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -530,8 +558,62 @@
 </styleSheet>
 </file>
 
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{EEA13FF3-0228-6340-8958-F1EF18A8B876}" diskRevisions="1" version="4" protected="1">
+  <header guid="{B249EB94-512D-0647-AC9D-85790D991044}" dateTime="2017-07-11T17:38:53" maxSheetId="2" userName="Duncan Paterson" r:id="rId1">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{50DBDA6A-BB54-094A-BD75-545F8D099E88}" dateTime="2017-07-11T17:40:01" maxSheetId="2" userName="Duncan Paterson" r:id="rId2">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FC48F588-C442-2347-A207-39128D07DFF7}" dateTime="2017-07-11T17:40:35" maxSheetId="2" userName="Duncan Paterson" r:id="rId3">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{EEA13FF3-0228-6340-8958-F1EF18A8B876}" dateTime="2017-07-11T17:43:04" maxSheetId="2" userName="Duncan Paterson" r:id="rId4">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{CF58D26F-A0BA-0142-B29E-E0250F7879E1}" action="delete"/>
+  <rcv guid="{CF58D26F-A0BA-0142-B29E-E0250F7879E1}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{CF58D26F-A0BA-0142-B29E-E0250F7879E1}" action="delete"/>
+  <rcv guid="{CF58D26F-A0BA-0142-B29E-E0250F7879E1}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{CF58D26F-A0BA-0142-B29E-E0250F7879E1}" action="delete"/>
+  <rcv guid="{CF58D26F-A0BA-0142-B29E-E0250F7879E1}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -576,9 +658,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -606,31 +688,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -658,23 +723,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -853,17 +901,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -886,7 +934,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -909,7 +957,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -920,7 +968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -931,7 +979,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -942,7 +990,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -953,7 +1001,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -964,7 +1012,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -975,7 +1023,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -986,7 +1034,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>88</v>
       </c>
@@ -997,7 +1045,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -1008,7 +1056,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -1019,7 +1067,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -1030,7 +1078,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -1041,7 +1089,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -1052,7 +1100,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -1063,7 +1111,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>88</v>
       </c>
@@ -1074,7 +1122,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>88</v>
       </c>
@@ -1085,7 +1133,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -1096,7 +1144,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>88</v>
       </c>
@@ -1107,7 +1155,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -1118,7 +1166,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -1129,7 +1177,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -1140,7 +1188,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -1151,7 +1199,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -1162,7 +1210,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -1173,7 +1221,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -1184,7 +1232,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -1195,7 +1243,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1206,7 +1254,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -1217,7 +1265,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -1228,7 +1276,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -1239,7 +1287,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -1250,7 +1298,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -1261,7 +1309,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -1272,7 +1320,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -1283,7 +1331,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -1294,7 +1342,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -1305,7 +1353,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -1316,7 +1364,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -1327,7 +1375,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -1338,7 +1386,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -1349,7 +1397,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -1360,7 +1408,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -1371,7 +1419,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -1382,7 +1430,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -1393,7 +1441,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>70</v>
       </c>
@@ -1405,7 +1453,7 @@
       </c>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -1416,7 +1464,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>70</v>
       </c>
@@ -1428,7 +1476,7 @@
       </c>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -1439,7 +1487,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>70</v>
       </c>
@@ -1450,7 +1498,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>70</v>
       </c>
@@ -1461,7 +1509,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>70</v>
       </c>
@@ -1472,7 +1520,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -1483,7 +1531,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>79</v>
       </c>
@@ -1494,7 +1542,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -1505,7 +1553,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -1516,7 +1564,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>79</v>
       </c>
@@ -1527,7 +1575,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>79</v>
       </c>
@@ -1538,7 +1586,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>79</v>
       </c>
@@ -1549,7 +1597,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>87</v>
       </c>
@@ -1560,7 +1608,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>87</v>
       </c>
@@ -1571,7 +1619,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -1582,7 +1630,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -1593,7 +1641,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>87</v>
       </c>
@@ -1604,7 +1652,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -1615,7 +1663,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>87</v>
       </c>
@@ -1626,7 +1674,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>87</v>
       </c>
@@ -1637,7 +1685,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -1648,7 +1696,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -1659,7 +1707,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -1670,7 +1718,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>100</v>
       </c>
@@ -1681,7 +1729,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>100</v>
       </c>
@@ -1692,7 +1740,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>100</v>
       </c>
@@ -1703,7 +1751,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -1714,7 +1762,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>100</v>
       </c>
@@ -1725,7 +1773,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>100</v>
       </c>
@@ -1736,7 +1784,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>100</v>
       </c>
@@ -1747,7 +1795,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>100</v>
       </c>
@@ -1758,7 +1806,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>107</v>
       </c>
@@ -1769,7 +1817,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>107</v>
       </c>
@@ -1780,7 +1828,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>107</v>
       </c>
@@ -1791,7 +1839,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>107</v>
       </c>
@@ -1802,7 +1850,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>107</v>
       </c>
@@ -1813,7 +1861,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>107</v>
       </c>
@@ -1824,7 +1872,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>107</v>
       </c>
@@ -1835,7 +1883,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>112</v>
       </c>
@@ -1846,7 +1894,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -1857,7 +1905,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>112</v>
       </c>
@@ -1868,7 +1916,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>112</v>
       </c>
@@ -1879,7 +1927,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>112</v>
       </c>
@@ -1890,7 +1938,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>112</v>
       </c>
@@ -1901,7 +1949,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>122</v>
       </c>
@@ -1912,7 +1960,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>122</v>
       </c>
@@ -1923,7 +1971,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>122</v>
       </c>
@@ -1934,7 +1982,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>122</v>
       </c>
@@ -1945,7 +1993,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>122</v>
       </c>
@@ -1956,7 +2004,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>122</v>
       </c>
@@ -1967,7 +2015,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>122</v>
       </c>
@@ -1978,7 +2026,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>122</v>
       </c>
@@ -1989,7 +2037,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>122</v>
       </c>
@@ -2000,7 +2048,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>122</v>
       </c>
@@ -2011,7 +2059,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>122</v>
       </c>
@@ -2022,7 +2070,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>122</v>
       </c>
@@ -2033,7 +2081,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>122</v>
       </c>
@@ -2044,7 +2092,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>122</v>
       </c>
@@ -2056,7 +2104,14 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{CF58D26F-A0BA-0142-B29E-E0250F7879E1}" topLeftCell="A8">
+      <selection activeCell="A13" sqref="A13"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>